--- a/Uveges TableSXv2.xlsx
+++ b/Uveges TableSXv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminuveges/Desktop/SMIF-Github/Sulfur-MSI-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429565C-32E6-AC4E-9475-21FDC6E7F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E955946C-3076-5A43-BC46-E024BF18DE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{55691086-1B78-CE48-B079-BD1CF4D5FF18}"/>
   </bookViews>
@@ -3912,7 +3912,7 @@
   <dimension ref="A1:AD68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
